--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,108 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\TgBotForStudents\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" activeTab="2"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Образец" sheetId="2" r:id="rId1"/>
-    <sheet name="Максим" sheetId="1" r:id="rId2"/>
-    <sheet name="Наталья" sheetId="3" r:id="rId3"/>
+    <sheet name="Образец" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Максим" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Наталья" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Михаил" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="щека" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
-  <si>
-    <t>Имя родителя</t>
-  </si>
-  <si>
-    <t>Номер родителя</t>
-  </si>
-  <si>
-    <t>Номер ученика</t>
-  </si>
-  <si>
-    <t>Дата следующего урока</t>
-  </si>
-  <si>
-    <t>Тема последнего урока</t>
-  </si>
-  <si>
-    <t>Дз</t>
-  </si>
-  <si>
-    <t>Уроков оплачено</t>
-  </si>
-  <si>
-    <t>Уроков прошло</t>
-  </si>
-  <si>
-    <t>id ученика</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>Мама</t>
-  </si>
-  <si>
-    <t>423423</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
-    <t>pads</t>
-  </si>
-  <si>
-    <t>Доделать start</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>Fjffjfjf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1556909446</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF6897BB"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <color rgb="FF6897BB"/>
+      <sz val="8"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -121,25 +57,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -439,59 +434,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col width="15.42578125" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="14.42578125" customWidth="1" min="3" max="3"/>
+    <col width="23.140625" customWidth="1" min="4" max="4"/>
+    <col width="22.7109375" customWidth="1" min="5" max="5"/>
+    <col width="17.28515625" customWidth="1" min="7" max="7"/>
+    <col width="15.85546875" customWidth="1" min="8" max="8"/>
+    <col width="10.28515625" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Имя родителя</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Номер родителя</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Номер ученика</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Дата следующего урока</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Тема последнего урока</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Дз</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Уроков оплачено</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Уроков прошло</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>id ученика</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="J2">
+    <row r="2">
+      <c r="J2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -501,153 +520,443 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
+    <col width="13.42578125" customWidth="1" min="1" max="1"/>
+    <col width="15.85546875" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="21.140625" customWidth="1" min="4" max="4"/>
+    <col width="19.85546875" customWidth="1" min="5" max="5"/>
+    <col width="17.28515625" customWidth="1" min="7" max="7"/>
+    <col width="14.42578125" customWidth="1" min="8" max="8"/>
+    <col width="9.85546875" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Имя родителя</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Номер родителя</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Номер ученика</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Дата следующего урока</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Тема последнего урока</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Дз</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Уроков оплачено</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Уроков прошло</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>id ученика</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Папа</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1232131</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>321231</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>100.11.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>тести бота)))</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Фото</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>1737599584</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col width="15.42578125" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="14.42578125" customWidth="1" min="3" max="3"/>
+    <col width="23.140625" customWidth="1" min="4" max="4"/>
+    <col width="22.7109375" customWidth="1" min="5" max="5"/>
+    <col width="17.28515625" customWidth="1" min="7" max="7"/>
+    <col width="15.85546875" customWidth="1" min="8" max="8"/>
+    <col width="10.28515625" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Имя родителя</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Номер родителя</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Номер ученика</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Дата следующего урока</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Тема последнего урока</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Дз</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Уроков оплачено</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Уроков прошло</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>id ученика</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Fjffjfjf</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1556909446</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="15.42578125" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="14.42578125" customWidth="1" min="3" max="3"/>
+    <col width="23.140625" customWidth="1" min="4" max="4"/>
+    <col width="22.7109375" customWidth="1" min="5" max="5"/>
+    <col width="17.28515625" customWidth="1" min="7" max="7"/>
+    <col width="15.85546875" customWidth="1" min="8" max="8"/>
+    <col width="10.28515625" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Имя родителя</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Номер родителя</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Номер ученика</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Дата следующего урока</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Тема последнего урока</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Дз</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Уроков оплачено</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Уроков прошло</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>id ученика</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sda</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>sda</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>dsa</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>dsa</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>dsa</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>dsa</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>dsa</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>dsa</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>582338838</v>
+      </c>
+      <c r="J2" t="n">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="15.42578125" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="14.42578125" customWidth="1" min="3" max="3"/>
+    <col width="23.140625" customWidth="1" min="4" max="4"/>
+    <col width="22.7109375" customWidth="1" min="5" max="5"/>
+    <col width="17.28515625" customWidth="1" min="7" max="7"/>
+    <col width="15.85546875" customWidth="1" min="8" max="8"/>
+    <col width="10.28515625" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Имя родителя</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Номер родителя</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Номер ученика</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Дата следующего урока</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Тема последнего урока</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Дз</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Уроков оплачено</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Уроков прошло</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>id ученика</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -445,7 +445,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15.42578125" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
@@ -510,6 +510,11 @@
       </c>
     </row>
     <row r="2">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Максим</t>
+        </is>
+      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
@@ -531,7 +536,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.42578125" customWidth="1" min="1" max="1"/>
     <col width="15.85546875" customWidth="1" min="2" max="2"/>
@@ -661,7 +666,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15.42578125" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
@@ -757,7 +762,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15.42578125" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
@@ -886,7 +891,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15.42578125" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -512,7 +512,7 @@
     <row r="2">
       <c r="F2" t="inlineStr">
         <is>
-          <t>Максим</t>
+          <t>Фото</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -628,7 +628,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Фото</t>
+          <t>выфв</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>выфв</t>
+          <t>Фото</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Образец" sheetId="1" state="visible" r:id="rId1"/>
@@ -442,10 +442,10 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="15.42578125" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
@@ -510,11 +510,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Фото</t>
-        </is>
-      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
@@ -532,11 +527,11 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="13.42578125" customWidth="1" min="1" max="1"/>
     <col width="15.85546875" customWidth="1" min="2" max="2"/>
@@ -645,7 +640,7 @@
         <v>1737599584</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +661,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="15.42578125" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
@@ -758,11 +753,11 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="15.42578125" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
@@ -871,7 +866,7 @@
         <v>582338838</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -891,7 +886,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="15.42578125" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -445,7 +445,7 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15.42578125" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
@@ -531,7 +531,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.42578125" customWidth="1" min="1" max="1"/>
     <col width="15.85546875" customWidth="1" min="2" max="2"/>
@@ -640,7 +640,7 @@
         <v>1737599584</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -661,7 +661,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15.42578125" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
@@ -757,7 +757,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15.42578125" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
@@ -886,7 +886,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15.42578125" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
